--- a/PLDI-2012/accurate_runtimes.xlsx
+++ b/PLDI-2012/accurate_runtimes.xlsx
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>NEW</t>
   </si>
@@ -139,6 +136,102 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Benchmark ID</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -236,7 +329,7 @@
           <c:x val="7.8053996818428145E-2"/>
           <c:y val="2.5633520752313167E-2"/>
           <c:w val="0.90007906480766975"/>
-          <c:h val="0.70779527942686438"/>
+          <c:h val="0.83260030873675894"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -258,6 +351,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -267,101 +363,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$K$2:$K$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Inventory_Control</c:v>
+                  <c:v>01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ReqComp</c:v>
+                  <c:v>02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3660%20schedule%20S2003</c:v>
+                  <c:v>03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RMRanker95</c:v>
+                  <c:v>04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Logistikkostnader</c:v>
+                  <c:v>05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HMWK112403</c:v>
+                  <c:v>06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30day</c:v>
+                  <c:v>07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2002fairreport</c:v>
+                  <c:v>08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9620040303160820</c:v>
+                  <c:v>09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Inventory%20errors</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>grades</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>expenses_ans</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>grades2002</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>csDept-PayrollTimecardEntry</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Example_3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>lmc_financial</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104r</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>TRAIL%20INVENTORY%20N#A850A</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Grades-6_excerpt</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>intresults</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>OakProducts</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>am_skandia_fin_supple#A80EE</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>E04_AppE_Census_Database_50</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>pfi-anxa</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>q%20exhibit54-OEA</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>econ424-fall2003-publ#A8A23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Grades_EEE481&amp;581</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>gpa_calculator</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>s446gradessp04</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>NEW</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>AVERAGE</c:v>
+                  <c:v>AVG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -484,6 +580,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -491,103 +590,709 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-9.3603744149766063E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$12</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>96</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1289867344058708E-3"/>
+                  <c:y val="-3.9521580863234526E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$13</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>120</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.7441497659906398E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$14</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>123</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.3281331253250133E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$15</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>124</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1289867344058708E-3"/>
+                  <c:y val="-3.7441497659906398E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$16</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>127</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.9121164846593862E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$17</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>142</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.5361414456578262E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$18</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>144</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2579734688117415E-3"/>
+                  <c:y val="-3.7441497659906398E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$19</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>156</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1289867344058708E-3"/>
+                  <c:y val="-3.952158086323445E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$20</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>168</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8896593260304777E-8"/>
+                  <c:y val="-0.18512740509620385"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$21</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>239</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1289867344058708E-3"/>
+                  <c:y val="-3.1201248049922074E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$22</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>242</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.279140410973204E-17"/>
+                  <c:y val="-3.1201248049921998E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$23</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>268</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2579734688117415E-3"/>
+                  <c:y val="-4.7841913676547061E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$24</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>300</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-5.6162246489859596E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$25</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>310</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-6.8642745709828396E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$26</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>365</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1289867344058708E-3"/>
+                  <c:y val="-4.9921996879875197E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$27</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>384</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2579734688117415E-3"/>
+                  <c:y val="-4.1601664066562662E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$28</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>756</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2579734688117415E-3"/>
+                  <c:y val="-7.4882995319812795E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$29</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>819</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1289867344058708E-3"/>
+                  <c:y val="-7.9043161726468983E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$30</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1247</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.38481539261570463"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$31</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>2403</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2579734688117415E-3"/>
+                  <c:y val="-4.992199687987512E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$K$2:$K$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Inventory_Control</c:v>
+                  <c:v>01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ReqComp</c:v>
+                  <c:v>02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3660%20schedule%20S2003</c:v>
+                  <c:v>03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RMRanker95</c:v>
+                  <c:v>04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Logistikkostnader</c:v>
+                  <c:v>05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HMWK112403</c:v>
+                  <c:v>06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30day</c:v>
+                  <c:v>07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2002fairreport</c:v>
+                  <c:v>08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9620040303160820</c:v>
+                  <c:v>09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Inventory%20errors</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>grades</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>expenses_ans</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>grades2002</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>csDept-PayrollTimecardEntry</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Example_3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>lmc_financial</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104r</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>TRAIL%20INVENTORY%20N#A850A</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Grades-6_excerpt</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>intresults</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>OakProducts</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>am_skandia_fin_supple#A80EE</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>E04_AppE_Census_Database_50</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>pfi-anxa</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>q%20exhibit54-OEA</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>econ424-fall2003-publ#A8A23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Grades_EEE481&amp;581</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>gpa_calculator</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>s446gradessp04</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>NEW</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>AVERAGE</c:v>
+                  <c:v>AVG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -710,7 +1415,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -718,103 +1425,381 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.5761830473218926E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$2</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.3681747269890797E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$3</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.7841913676547061E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$4</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3869602032176121E-3"/>
+                  <c:y val="-4.3681747269890797E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$5</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>11</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2579734688117207E-3"/>
+                  <c:y val="-4.3681747269890797E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$6</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>26</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3869602032176121E-3"/>
+                  <c:y val="-4.9921996879875197E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$7</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>27</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2579734688117415E-3"/>
+                  <c:y val="-4.992199687987512E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$8</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>30</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1289867344058708E-3"/>
+                  <c:y val="-4.3681747269890797E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$9</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>39</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.3681747269890797E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$10</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>81</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2579734688117415E-3"/>
+                  <c:y val="-4.3681747269890797E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>Sheet1!$D$11</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>90</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$K$2:$K$32</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Inventory_Control</c:v>
+                  <c:v>01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ReqComp</c:v>
+                  <c:v>02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3660%20schedule%20S2003</c:v>
+                  <c:v>03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RMRanker95</c:v>
+                  <c:v>04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Logistikkostnader</c:v>
+                  <c:v>05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HMWK112403</c:v>
+                  <c:v>06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30day</c:v>
+                  <c:v>07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2002fairreport</c:v>
+                  <c:v>08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9620040303160820</c:v>
+                  <c:v>09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Inventory%20errors</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>grades</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>expenses_ans</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>grades2002</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>csDept-PayrollTimecardEntry</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Example_3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>lmc_financial</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104r</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>TRAIL%20INVENTORY%20N#A850A</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Grades-6_excerpt</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>intresults</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>OakProducts</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>am_skandia_fin_supple#A80EE</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>E04_AppE_Census_Database_50</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>pfi-anxa</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>q%20exhibit54-OEA</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>econ424-fall2003-publ#A8A23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Grades_EEE481&amp;581</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>gpa_calculator</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>s446gradessp04</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>NEW</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>AVERAGE</c:v>
+                  <c:v>AVG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -932,16 +1917,40 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="80579584"/>
-        <c:axId val="80597760"/>
+        <c:axId val="140886016"/>
+        <c:axId val="140887552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80579584"/>
+        <c:axId val="140886016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -956,7 +1965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80597760"/>
+        <c:crossAx val="140887552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +1973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80597760"/>
+        <c:axId val="140887552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +2002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80579584"/>
+        <c:crossAx val="140886016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,18 +2043,893 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>CheckCell Execution Times Breakdown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6273552312327209E-2"/>
+          <c:y val="0.19154536260190566"/>
+          <c:w val="0.89387988362175075"/>
+          <c:h val="0.62667207160727378"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dependence Analysis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$2:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.6674248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95412730000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73303169999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7429003999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4835588999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87501839999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3937771999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2887215000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1899807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2452346999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0565014000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91607419999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0256004000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8508732000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2243204000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6878757999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8132531000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1193677</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.098171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.124659900000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6715465</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5295418000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0727403999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.380807699999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.029305999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9084485999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3079860000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8819477</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.7591242999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>115.7482545</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5260058733333324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impact Analysis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$2:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.5887097999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52144710000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44199660000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3819359000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9706307000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77758590000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3076729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6684095999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7379739000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0182749</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149.8511389</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1463855000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1056429999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3684117000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5608687000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6324797999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2632656999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9931473</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45489259999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>287.63170810000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2045440999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0124658999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.7227806</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.101680899999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>68.702762000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.959071299999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.741088599999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>113.6703244</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>113.29074780000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>440.30012620000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.004272346666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impact Scoring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$2:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.4175477999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44142310000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33547189999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9063496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3958697999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6272105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27063280000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3048226000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81204310000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53394129999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5053441999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1486991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51130549999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1010610000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27867710000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7974604999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5443268000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99276710000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25089909999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.115443600000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.91411419999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0636711000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2156064999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0497914</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.787670800000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9285521999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0270033000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.275109400000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.2715123000000101</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>127.23209850000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2018808733333346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="29629824"/>
+        <c:axId val="29648768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="29629824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Benchmark ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47464980930064377"/>
+              <c:y val="0.92865265476760805"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29648768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29648768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="29629824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6915262036729404E-2"/>
+          <c:y val="7.3885701884768271E-2"/>
+          <c:w val="0.88655995366543805"/>
+          <c:h val="0.15809451275688824"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>351064</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>17689</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1068,20 +2952,39 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1371,15 +3274,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1407,8 +3313,11 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1441,8 +3350,11 @@
         <f>I2/E2</f>
         <v>7.1528937193075272E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1475,8 +3387,11 @@
         <f t="shared" ref="J3:J31" si="1">I3/E3</f>
         <v>1.7333903967305435E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1509,8 +3424,11 @@
         <f t="shared" si="1"/>
         <v>2.1314351650486299E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1543,8 +3461,11 @@
         <f t="shared" si="1"/>
         <v>4.9916512643275682E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1577,8 +3498,11 @@
         <f t="shared" si="1"/>
         <v>3.8358702630659656E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1611,8 +3535,11 @@
         <f t="shared" si="1"/>
         <v>1.2613116412798817E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1645,8 +3572,11 @@
         <f t="shared" si="1"/>
         <v>1.132427921911848E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1679,8 +3609,11 @@
         <f t="shared" si="1"/>
         <v>8.0290470497960589E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1713,8 +3646,11 @@
         <f t="shared" si="1"/>
         <v>7.2966454568720316E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1747,8 +3683,11 @@
         <f t="shared" si="1"/>
         <v>1.1482027703441868E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1781,8 +3720,11 @@
         <f t="shared" si="1"/>
         <v>2.1367923355770899E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1815,8 +3757,11 @@
         <f t="shared" si="1"/>
         <v>1.0280949497698541E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1849,8 +3794,11 @@
         <f t="shared" si="1"/>
         <v>1.1215841507100132E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1883,8 +3831,11 @@
         <f t="shared" si="1"/>
         <v>6.1343053966679802E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1917,8 +3868,11 @@
         <f t="shared" si="1"/>
         <v>2.6633289489677425E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1951,8 +3905,11 @@
         <f t="shared" si="1"/>
         <v>1.9572762110463475E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1985,8 +3942,11 @@
         <f t="shared" si="1"/>
         <v>5.5689885893101488E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2019,8 +3979,11 @@
         <f t="shared" si="1"/>
         <v>6.552868284548664E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2053,8 +4016,11 @@
         <f t="shared" si="1"/>
         <v>1.6909131097550947E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2087,8 +4053,11 @@
         <f t="shared" si="1"/>
         <v>1.1515621523382071E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2121,8 +4090,11 @@
         <f t="shared" si="1"/>
         <v>4.090132727314357E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2155,8 +4127,11 @@
         <f t="shared" si="1"/>
         <v>5.0213468394320138E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2189,8 +4164,11 @@
         <f t="shared" si="1"/>
         <v>7.6374688359550648E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2223,8 +4201,11 @@
         <f t="shared" si="1"/>
         <v>4.1823580425470503E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2257,8 +4238,11 @@
         <f t="shared" si="1"/>
         <v>3.8770176820267764E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2291,8 +4275,11 @@
         <f t="shared" si="1"/>
         <v>5.4625950792634801E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2325,8 +4312,11 @@
         <f t="shared" si="1"/>
         <v>8.6009234566823364E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2359,8 +4349,11 @@
         <f t="shared" si="1"/>
         <v>2.771451834631021E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2393,8 +4386,11 @@
         <f t="shared" si="1"/>
         <v>3.0001655547911763E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2427,8 +4423,11 @@
         <f t="shared" si="1"/>
         <v>6.4851151919276712E-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2468,6 +4467,9 @@
         <f t="shared" si="2"/>
         <v>6.789493366538904E-3</v>
       </c>
+      <c r="K32" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -2529,11 +4531,11 @@
         <v>0.44142310000000001</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" ref="I37:I65" si="3">E37-SUM(F37:H37)</f>
+        <f t="shared" ref="I37:I54" si="3">E37-SUM(F37:H37)</f>
         <v>3.3815199999999823E-2</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" ref="J37:J65" si="4">I37/E37</f>
+        <f t="shared" ref="J37:J54" si="4">I37/E37</f>
         <v>1.7333903967305435E-2</v>
       </c>
     </row>
@@ -3141,11 +5143,11 @@
         <v>0.91411419999999999</v>
       </c>
       <c r="I55" s="3">
-        <f>E55-SUM(F55:H55)</f>
+        <f t="shared" ref="I55:I63" si="5">E55-SUM(F55:H55)</f>
         <v>2.7886900000000381E-2</v>
       </c>
       <c r="J55" s="3">
-        <f>I55/E55</f>
+        <f t="shared" ref="J55:J63" si="6">I55/E55</f>
         <v>4.090132727314357E-3</v>
       </c>
     </row>
@@ -3175,11 +5177,11 @@
         <v>1.0636711000000001</v>
       </c>
       <c r="I56" s="3">
-        <f>E56-SUM(F56:H56)</f>
+        <f t="shared" si="5"/>
         <v>3.3336799999999833E-2</v>
       </c>
       <c r="J56" s="3">
-        <f>I56/E56</f>
+        <f t="shared" si="6"/>
         <v>5.0213468394320138E-3</v>
       </c>
     </row>
@@ -3209,11 +5211,11 @@
         <v>2.2156064999999998</v>
       </c>
       <c r="I57" s="3">
-        <f>E57-SUM(F57:H57)</f>
+        <f t="shared" si="5"/>
         <v>2.9817399999998884E-2</v>
       </c>
       <c r="J57" s="3">
-        <f>I57/E57</f>
+        <f t="shared" si="6"/>
         <v>7.6374688359550648E-4</v>
       </c>
     </row>
@@ -3243,11 +5245,11 @@
         <v>24.0497914</v>
       </c>
       <c r="I58" s="3">
-        <f>E58-SUM(F58:H58)</f>
+        <f t="shared" si="5"/>
         <v>3.0766700000000924E-2</v>
       </c>
       <c r="J58" s="3">
-        <f>I58/E58</f>
+        <f t="shared" si="6"/>
         <v>4.1823580425470503E-4</v>
       </c>
     </row>
@@ -3277,11 +5279,11 @@
         <v>15.787670800000001</v>
       </c>
       <c r="I59" s="3">
-        <f>E59-SUM(F59:H59)</f>
+        <f t="shared" si="5"/>
         <v>3.9762499999994816E-2</v>
       </c>
       <c r="J59" s="3">
-        <f>I59/E59</f>
+        <f t="shared" si="6"/>
         <v>3.8770176820267764E-4</v>
       </c>
     </row>
@@ -3311,11 +5313,11 @@
         <v>1.9285521999999999</v>
       </c>
       <c r="I60" s="3">
-        <f>E60-SUM(F60:H60)</f>
+        <f t="shared" si="5"/>
         <v>3.4321700000006672E-2</v>
       </c>
       <c r="J60" s="3">
-        <f>I60/E60</f>
+        <f t="shared" si="6"/>
         <v>5.4625950792634801E-4</v>
       </c>
     </row>
@@ -3345,11 +5347,11 @@
         <v>1.0270033000000001</v>
       </c>
       <c r="I61" s="3">
-        <f>E61-SUM(F61:H61)</f>
+        <f t="shared" si="5"/>
         <v>3.44988000000086E-2</v>
       </c>
       <c r="J61" s="3">
-        <f>I61/E61</f>
+        <f t="shared" si="6"/>
         <v>8.6009234566823364E-4</v>
       </c>
     </row>
@@ -3379,11 +5381,11 @@
         <v>0.275109400000005</v>
       </c>
       <c r="I62" s="3">
-        <f>E62-SUM(F62:H62)</f>
+        <f t="shared" si="5"/>
         <v>3.2109899999994695E-2</v>
       </c>
       <c r="J62" s="3">
-        <f>I62/E62</f>
+        <f t="shared" si="6"/>
         <v>2.771451834631021E-4</v>
       </c>
     </row>
@@ -3413,11 +5415,11 @@
         <v>6.2715123000000101</v>
       </c>
       <c r="I63" s="3">
-        <f>E63-SUM(F63:H63)</f>
+        <f t="shared" si="5"/>
         <v>3.881020000000035E-2</v>
       </c>
       <c r="J63" s="3">
-        <f>I63/E63</f>
+        <f t="shared" si="6"/>
         <v>3.0001655547911763E-4</v>
       </c>
     </row>
